--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AD3FB-9309-41BF-9E36-EE8A7E64889A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TT</t>
   </si>
@@ -59,28 +67,37 @@
   </si>
   <si>
     <t>Thời gian chi</t>
+  </si>
+  <si>
+    <t>15USD/tháng</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 4/2019</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 5/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,9 +142,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -143,13 +160,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -244,6 +264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,34 +508,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -489,13 +543,13 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <f>SUM(E5:E254)</f>
-        <v>2780000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3480000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -515,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -525,7 +579,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2">
@@ -535,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -545,7 +599,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>43215</v>
       </c>
       <c r="E6" s="2">
@@ -553,7 +607,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -572,23 +626,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43501</v>
+      </c>
+      <c r="E8" s="9">
+        <v>350000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43502</v>
+      </c>
+      <c r="E9" s="9">
+        <v>350000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -596,7 +674,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -604,7 +682,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -612,7 +690,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -620,7 +698,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -628,7 +706,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AD3FB-9309-41BF-9E36-EE8A7E64889A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A8A5D-F431-46C5-9FAE-27AFB7D59BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TT</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Chi phí host tháng 5/2019</t>
+  </si>
+  <si>
+    <t>Mua domain logdez.com 2 năm</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +549,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <f>SUM(E5:E254)</f>
-        <v>3480000</v>
+        <v>3794000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,11 +670,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43502</v>
+      </c>
+      <c r="E10" s="9">
+        <v>314000</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A8A5D-F431-46C5-9FAE-27AFB7D59BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5886D2-434E-4C50-8A22-1700E4E7A3DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>TT</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Thời gian chi</t>
   </si>
   <si>
-    <t>15USD/tháng</t>
-  </si>
-  <si>
     <t>Chi phí host tháng 4/2019</t>
   </si>
   <si>
@@ -79,6 +76,12 @@
   </si>
   <si>
     <t>Mua domain logdez.com 2 năm</t>
+  </si>
+  <si>
+    <t>15.77USD/tháng</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 6/2019</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +552,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <f>SUM(E5:E254)</f>
-        <v>3794000</v>
+        <v>4189000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -634,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -643,10 +646,10 @@
         <v>43501</v>
       </c>
       <c r="E8" s="9">
-        <v>350000</v>
+        <v>365000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -654,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -663,10 +666,10 @@
         <v>43502</v>
       </c>
       <c r="E9" s="9">
-        <v>350000</v>
+        <v>365000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -674,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -689,11 +692,21 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43502</v>
+      </c>
+      <c r="E11" s="9">
+        <v>365000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5886D2-434E-4C50-8A22-1700E4E7A3DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212FED55-BDC7-461D-B44C-83C743ADC2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>TT</t>
   </si>
@@ -82,6 +82,37 @@
   </si>
   <si>
     <t>Chi phí host tháng 6/2019</t>
+  </si>
+  <si>
+    <t>Chi phí thành lập doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Chi phí mua biển công ty</t>
+  </si>
+  <si>
+    <t>Chi phí mua token key</t>
+  </si>
+  <si>
+    <t>Chi phí nộp thuế muôn bài</t>
+  </si>
+  <si>
+    <t>3 năm</t>
+  </si>
+  <si>
+    <t>Chỉ phải nộp nửa năm do thành lập từ 24/7</t>
+  </si>
+  <si>
+    <t>25/7/2019</t>
+  </si>
+  <si>
+    <t>DuyOT
+DoanLV4</t>
+  </si>
+  <si>
+    <t>Chi cục thuế kiểm tra</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 7/2019</t>
   </si>
 </sst>
 </file>
@@ -150,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,6 +203,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,14 +566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
@@ -552,7 +586,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <f>SUM(E5:E254)</f>
-        <v>4189000</v>
+        <v>9254000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -575,15 +609,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -691,7 +725,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -699,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="8">
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="E11" s="9">
         <v>365000</v>
@@ -709,36 +745,99 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2000000</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200000</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
+        <v>43473</v>
+      </c>
+      <c r="E16" s="9">
+        <v>365000</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212FED55-BDC7-461D-B44C-83C743ADC2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0B17F-E49F-45BA-A2A8-1A86B3166AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -78,9 +81,6 @@
     <t>Mua domain logdez.com 2 năm</t>
   </si>
   <si>
-    <t>15.77USD/tháng</t>
-  </si>
-  <si>
     <t>Chi phí host tháng 6/2019</t>
   </si>
   <si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Chi phí mua token key</t>
-  </si>
-  <si>
-    <t>Chi phí nộp thuế muôn bài</t>
   </si>
   <si>
     <t>3 năm</t>
@@ -113,6 +110,33 @@
   </si>
   <si>
     <t>Chi phí host tháng 7/2019</t>
+  </si>
+  <si>
+    <t>Chi phí mua hóa đơn điện tử (300 đơn)</t>
+  </si>
+  <si>
+    <t>22/8/2019</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Setup Company</t>
+  </si>
+  <si>
+    <t>Nộp thuế muôn bài</t>
+  </si>
+  <si>
+    <t>15 USD/tháng</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 8/2019</t>
   </si>
 </sst>
 </file>
@@ -181,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +230,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,47 +583,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E3" s="5">
-        <f>SUM(E5:E254)</f>
-        <v>9254000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <f>SUM(F5:F254)</f>
+        <v>11119000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -597,39 +634,45 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1200000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -637,17 +680,20 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
         <v>43215</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>200000</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -655,18 +701,21 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -674,19 +723,22 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
         <v>43501</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>365000</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -694,19 +746,22 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
         <v>43502</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>365000</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -714,134 +769,203 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
         <v>43502</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>314000</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43503</v>
+      </c>
+      <c r="F11" s="9">
+        <v>365000</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8">
-        <v>43503</v>
-      </c>
-      <c r="E11" s="9">
-        <v>365000</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="9">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9">
         <v>2000000</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9">
+        <v>200000</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9">
-        <v>200000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
       <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43473</v>
+      </c>
+      <c r="F16" s="9">
+        <v>365000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8">
-        <v>43473</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="F17" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>43474</v>
+      </c>
+      <c r="F18" s="9">
         <v>365000</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:G17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0B17F-E49F-45BA-A2A8-1A86B3166AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5886D2-434E-4C50-8A22-1700E4E7A3DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$17</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>TT</t>
   </si>
@@ -81,62 +78,10 @@
     <t>Mua domain logdez.com 2 năm</t>
   </si>
   <si>
+    <t>15.77USD/tháng</t>
+  </si>
+  <si>
     <t>Chi phí host tháng 6/2019</t>
-  </si>
-  <si>
-    <t>Chi phí thành lập doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Chi phí mua biển công ty</t>
-  </si>
-  <si>
-    <t>Chi phí mua token key</t>
-  </si>
-  <si>
-    <t>3 năm</t>
-  </si>
-  <si>
-    <t>Chỉ phải nộp nửa năm do thành lập từ 24/7</t>
-  </si>
-  <si>
-    <t>25/7/2019</t>
-  </si>
-  <si>
-    <t>DuyOT
-DoanLV4</t>
-  </si>
-  <si>
-    <t>Chi cục thuế kiểm tra</t>
-  </si>
-  <si>
-    <t>Chi phí host tháng 7/2019</t>
-  </si>
-  <si>
-    <t>Chi phí mua hóa đơn điện tử (300 đơn)</t>
-  </si>
-  <si>
-    <t>22/8/2019</t>
-  </si>
-  <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Setup Company</t>
-  </si>
-  <si>
-    <t>Nộp thuế muôn bài</t>
-  </si>
-  <si>
-    <t>15 USD/tháng</t>
-  </si>
-  <si>
-    <t>Chi phí host tháng 8/2019</t>
   </si>
 </sst>
 </file>
@@ -205,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,19 +171,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -583,50 +515,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F3" s="5">
-        <f>SUM(F5:F254)</f>
-        <v>11119000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <f>SUM(E5:E254)</f>
+        <v>4189000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,22 +563,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -657,22 +583,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>1200000</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -680,20 +603,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>43215</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>200000</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -701,21 +621,18 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -723,22 +640,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>43501</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E8" s="9">
         <v>365000</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -746,22 +660,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>43502</v>
       </c>
-      <c r="F9" s="9">
+      <c r="E9" s="9">
         <v>365000</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -769,203 +680,69 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D10" s="8">
         <v>43502</v>
       </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9">
         <v>314000</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43502</v>
+      </c>
+      <c r="E11" s="9">
+        <v>365000</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43503</v>
-      </c>
-      <c r="F11" s="9">
-        <v>365000</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9">
-        <v>200000</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8">
-        <v>43473</v>
-      </c>
-      <c r="F16" s="9">
-        <v>365000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1500000</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8">
-        <v>43474</v>
-      </c>
-      <c r="F18" s="9">
-        <v>365000</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/0.PM/ChiPhi.xlsx
+++ b/Document/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0B17F-E49F-45BA-A2A8-1A86B3166AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8BCCD-1BF3-4D9E-AE10-CC5E53C79580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>TT</t>
   </si>
@@ -133,10 +133,25 @@
     <t>Nộp thuế muôn bài</t>
   </si>
   <si>
-    <t>15 USD/tháng</t>
-  </si>
-  <si>
     <t>Chi phí host tháng 8/2019</t>
+  </si>
+  <si>
+    <t>15 USD/tháng + 11K phí ngân hàng</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 9/2019</t>
+  </si>
+  <si>
+    <t>In  hợp đồng và gửi xuống đối tác VNC</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>29/9/2019</t>
+  </si>
+  <si>
+    <t>Mua quà tặng vợ anh Thiện (VNC)</t>
   </si>
 </sst>
 </file>
@@ -583,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +638,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F3" s="5">
         <f>SUM(F5:F254)</f>
-        <v>11119000</v>
+        <v>13054000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -735,7 +750,7 @@
         <v>365000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -758,7 +773,7 @@
         <v>365000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -799,10 +814,10 @@
         <v>43503</v>
       </c>
       <c r="F11" s="9">
-        <v>365000</v>
+        <v>375000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -896,7 +911,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -915,11 +930,11 @@
         <v>365000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -940,11 +955,11 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>13</v>
+      <c r="A18" s="1">
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -959,8 +974,73 @@
         <v>365000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>43475</v>
+      </c>
+      <c r="F19" s="9">
+        <v>365000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="14">
+        <v>60000</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
